--- a/3_2_multi_programmes_detect/data/111432/111432实验结果.xlsx
+++ b/3_2_multi_programmes_detect/data/111432/111432实验结果.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>样本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>waters</t>
+  </si>
+  <si>
+    <t>malware</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -432,7 +435,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -450,7 +455,9 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -468,7 +475,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
@@ -486,7 +495,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
@@ -504,7 +515,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
@@ -522,7 +535,9 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -540,7 +555,9 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
@@ -558,7 +575,9 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -576,7 +595,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -594,7 +615,9 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
